--- a/biology/Botanique/Jean_Feldmann/Jean_Feldmann.xlsx
+++ b/biology/Botanique/Jean_Feldmann/Jean_Feldmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Feldmann (1905–1978) est un biologiste français, spécialisé dans l'étude des algues marines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Feldmann (1905–1978) est un biologiste français, spécialisé dans l'étude des algues marines.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Feldmann est né le 25 juin 1905 à Paris[2]. Il a initialement étudié la pharmacie, obtenant son premier diplôme en 1929, avant de se porter son attention sur les algues marines[1]. En 1933, il est devenu assistant à l'Université d'Alger, où il a passé un doctorat en in 1937, épousé son assistante, Geneviève Mazoyer (1910-1994), en 1938, et où il est devenu professeur en 1948[1]. Le couple a déménagé à Paris quand Jean a accepté un poste dans l'institution devenue l'Université Pierre-et-Marie-Curie. Ils y sont restés jusqu'à sa retraite en 1976[1]. Il est décédé subitement le 18 septembre 1978[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Feldmann est né le 25 juin 1905 à Paris. Il a initialement étudié la pharmacie, obtenant son premier diplôme en 1929, avant de se porter son attention sur les algues marines. En 1933, il est devenu assistant à l'Université d'Alger, où il a passé un doctorat en in 1937, épousé son assistante, Geneviève Mazoyer (1910-1994), en 1938, et où il est devenu professeur en 1948. Le couple a déménagé à Paris quand Jean a accepté un poste dans l'institution devenue l'Université Pierre-et-Marie-Curie. Ils y sont restés jusqu'à sa retraite en 1976. Il est décédé subitement le 18 septembre 1978.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feldmann a publié près de 220 travaux scientifiques, principalement sur les algues marines, mais également sur divers champignons, mousses, algues d'eau douce et plantes à fleur[1]. Il croyait fortement en la coopération scientifique internationale[4] et, ayant co-fondé la Société Phycologique de France en 1955, il était un fervent défenseur de la fondation de l'International Phycological Society[1], dont il a été le président de sa création en 1961 jusqu'à sa retraite[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feldmann a publié près de 220 travaux scientifiques, principalement sur les algues marines, mais également sur divers champignons, mousses, algues d'eau douce et plantes à fleur. Il croyait fortement en la coopération scientifique internationale et, ayant co-fondé la Société Phycologique de France en 1955, il était un fervent défenseur de la fondation de l'International Phycological Society, dont il a été le président de sa création en 1961 jusqu'à sa retraite.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1971, le genre d’algues rouges Feldmannophycus (famille des Caulacanthaceae) a été nommé en l'honneur de Jean Feldmann par Jean Augier et Charles-François Boudouresque.
 </t>
